--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="problem2" sheetId="1" r:id="rId1"/>
     <sheet name="problem 3 10 trials" sheetId="2" r:id="rId2"/>
     <sheet name="problem 3 100 trials" sheetId="3" r:id="rId3"/>
     <sheet name="problem 3 300 trials" sheetId="4" r:id="rId4"/>
+    <sheet name="problem 4" sheetId="9" r:id="rId5"/>
+    <sheet name="problem 5 delay 300" sheetId="5" r:id="rId6"/>
+    <sheet name="problem 5 delay 150" sheetId="6" r:id="rId7"/>
+    <sheet name="problem 5 delay 75" sheetId="7" r:id="rId8"/>
+    <sheet name="problem 5 delay 0" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>comments</t>
   </si>
@@ -26,6 +31,42 @@
   </si>
   <si>
     <t>resistance population increases afterwards</t>
+  </si>
+  <si>
+    <t>delay 300 % cured</t>
+  </si>
+  <si>
+    <t>ignore y axis label should be patients not #virus</t>
+  </si>
+  <si>
+    <t>0% cured</t>
+  </si>
+  <si>
+    <t>delay 1500 % cured</t>
+  </si>
+  <si>
+    <t>5% cured</t>
+  </si>
+  <si>
+    <t>12% cured</t>
+  </si>
+  <si>
+    <t>100% cured</t>
+  </si>
+  <si>
+    <t>more patients are cured if the delay is smaller</t>
+  </si>
+  <si>
+    <t>0.33 % cured</t>
+  </si>
+  <si>
+    <t>1.33% cured</t>
+  </si>
+  <si>
+    <t>3% cured</t>
+  </si>
+  <si>
+    <t>6.33% cured</t>
   </si>
 </sst>
 </file>
@@ -364,6 +405,91 @@
         <a:xfrm>
           <a:off x="276225" y="5657850"/>
           <a:ext cx="2667000" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9218" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11925300" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9220" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="5629275"/>
+          <a:ext cx="2657475" cy="1952625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -732,6 +858,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A41:A54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A42:A55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -739,6 +997,41 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="problem2" sheetId="1" r:id="rId1"/>
@@ -490,6 +490,186 @@
         <a:xfrm>
           <a:off x="200025" y="5629275"/>
           <a:ext cx="2657475" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5124" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11906250" cy="8039100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6148" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11449050" cy="7591425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7172" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11553825" cy="7134225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8197" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8905875" cy="6505575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -926,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A42:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -997,6 +1177,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1009,6 +1190,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1021,6 +1203,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1028,10 +1211,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/solutions.xlsx
+++ b/solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="13350" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="problem2" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="problem 5 delay 150" sheetId="6" r:id="rId7"/>
     <sheet name="problem 5 delay 75" sheetId="7" r:id="rId8"/>
     <sheet name="problem 5 delay 0" sheetId="8" r:id="rId9"/>
+    <sheet name="problem 6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>comments</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>6.33% cured</t>
+  </si>
+  <si>
+    <t>implement model non-compliance action either, not taking drug or forgetting, as a random variable. Repeat simulations with new random variable included</t>
   </si>
 </sst>
 </file>
@@ -1006,6 +1010,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -1211,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
